--- a/Znode9X/TestData/ProductAttributes/AttributeGroups/AttributeGroup(Add New) TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/AttributeGroups/AttributeGroup(Add New) TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
   <si>
     <t>S.No.</t>
   </si>
@@ -102,18 +102,12 @@
     <t>SendKeys</t>
   </si>
   <si>
-    <t>Znode9X.addNew.username</t>
-  </si>
-  <si>
     <t>admin@znode.com</t>
   </si>
   <si>
     <t>Enter correct password</t>
   </si>
   <si>
-    <t>Znode9X.addNew.password</t>
-  </si>
-  <si>
     <t>admin12345</t>
   </si>
   <si>
@@ -123,25 +117,118 @@
     <t>Click</t>
   </si>
   <si>
-    <t>Znode9X.addNew.loginbutton</t>
-  </si>
-  <si>
     <t>Click on Menu button</t>
   </si>
   <si>
-    <t>Znode9X.addNew.menu</t>
-  </si>
-  <si>
     <t>Click on products attribute in PIM module</t>
   </si>
   <si>
+    <t>Znode9X.attributesGroupAddNew.username</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.password</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.loginbutton</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.menu</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.attributeGroups</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Click on Attribute Group</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.productAttributesDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hover on product attribute </t>
+  </si>
+  <si>
+    <t>RepeatedLocators</t>
+  </si>
+  <si>
+    <t>Product Attributes</t>
+  </si>
+  <si>
     <t>Click on Add New</t>
   </si>
   <si>
-    <t>Znode9X.addNew.addnewoption</t>
-  </si>
-  <si>
-    <t>Znode9X.addNew.attributeGroups</t>
+    <t>Znode9X.attributesGroupAddNew.addNewOption</t>
+  </si>
+  <si>
+    <t>Leave all the fields empty and click on cancel icon</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.cancelbutton</t>
+  </si>
+  <si>
+    <t>Check for validation, Attribute Group Page should appear</t>
+  </si>
+  <si>
+    <t>Assertion</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeGroupAddNew.cancelValidtaion</t>
+  </si>
+  <si>
+    <t>Attribute Groups</t>
+  </si>
+  <si>
+    <t>Leave all the fields empty and click on save icon</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.saveIcon</t>
+  </si>
+  <si>
+    <t>Check for validation,Mandatory fields are required</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeGroupAddNew.mandatoryFieldValidation</t>
+  </si>
+  <si>
+    <t>Attribute group code is required.</t>
+  </si>
+  <si>
+    <t>Click on cancel button</t>
+  </si>
+  <si>
+    <t>Enter invalid data in Group Code</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.groupCodeTextBox</t>
+  </si>
+  <si>
+    <t>1xyz</t>
+  </si>
+  <si>
+    <t>Check for Validation</t>
+  </si>
+  <si>
+    <t>Click on Save Icon</t>
+  </si>
+  <si>
+    <t>Only alphanumeric characters allowed and must start with alphabets.</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeGroupAddNew.alphanumericValidation</t>
+  </si>
+  <si>
+    <t>Enter valid data in Group Code</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t>Record created successfully.</t>
+  </si>
+  <si>
+    <t>Znode9x.attributeGroupAddNew.saveValidation</t>
   </si>
 </sst>
 </file>
@@ -224,7 +311,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -260,12 +347,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -283,21 +381,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -608,8 +704,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,19 +814,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="46.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="48.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="57" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -746,10 +843,10 @@
       <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -778,19 +875,19 @@
       <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>24</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9"/>
+      <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -806,20 +903,20 @@
       <c r="D3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="G3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -829,25 +926,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="E4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -857,25 +954,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -885,25 +982,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+        <v>32</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -913,53 +1010,557 @@
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="16">
+        <v>7</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16">
+        <v>8</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B10" s="16">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="16">
+        <v>10</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="16">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="16">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="16">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="B17" s="16">
+        <v>16</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="16">
+        <v>17</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="16">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="16">
+        <v>19</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="16">
+        <v>20</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="16">
+        <v>21</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="16">
+        <v>22</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="16">
+        <v>23</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="16">
+        <v>24</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="16">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Znode9X/TestData/ProductAttributes/AttributeGroups/AttributeGroup(Add New) TestData.xlsx
+++ b/Znode9X/TestData/ProductAttributes/AttributeGroups/AttributeGroup(Add New) TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="94">
   <si>
     <t>S.No.</t>
   </si>
@@ -229,6 +229,75 @@
   </si>
   <si>
     <t>Znode9x.attributeGroupAddNew.saveValidation</t>
+  </si>
+  <si>
+    <t>Enter a valid data in Group Code</t>
+  </si>
+  <si>
+    <t>Technical</t>
+  </si>
+  <si>
+    <t>Enter data in English Locale</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.englishLocale</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>Enter data in Spanish Locale</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.spanishLocale</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Click on Save &amp; Close button</t>
+  </si>
+  <si>
+    <t>Znode9X.attributesGroupAddNew.save&amp;closeIcon</t>
+  </si>
+  <si>
+    <t>Check for Validation message</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Click on Add Attribute</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeGroupAddNew.addAttribute</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Click on Submit button</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>Check for Validation  message</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeGroupAddNew.addAttributeValidation</t>
+  </si>
+  <si>
+    <t>Assigned successfully.</t>
+  </si>
+  <si>
+    <t>Enter duplicate Attribute Group</t>
+  </si>
+  <si>
+    <t>Znode9X.attributeGroupAddNew.duplicateAttributeValidation</t>
+  </si>
+  <si>
+    <t>Attribute Group already exists.</t>
   </si>
 </sst>
 </file>
@@ -814,10 +883,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,6 +1630,538 @@
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="16">
+        <v>26</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="16">
+        <v>27</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="16">
+        <v>28</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="16">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="16">
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="16">
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="16">
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="16">
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="16">
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="16">
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="16">
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="16">
+        <v>37</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="16">
+        <v>38</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="16">
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="16">
+        <v>40</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="16">
+        <v>41</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="16">
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="16">
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="16">
+        <v>44</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
